--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUONG DATA\STUDY\DATA ANALYST\CU\Projects\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xthea\OneDrive\Documents\Admin\Bootcamp\Carleton University\Classes\Module 21 - Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CAD17E-7FC0-4F2C-80B6-B249D186E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF92CD9-CD41-49DE-A97F-AC3309793C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$45</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t>WBS</t>
   </si>
@@ -1320,24 +1320,6 @@
     <t>Merge to main branch</t>
   </si>
   <si>
-    <t>Presentation the 1st segment</t>
-  </si>
-  <si>
-    <t>Submit segment 2 deliverble</t>
-  </si>
-  <si>
-    <t>Presentation the 2nd segment</t>
-  </si>
-  <si>
-    <t>Build the ML Model</t>
-  </si>
-  <si>
-    <t>Building the Database</t>
-  </si>
-  <si>
-    <t>Refine the Analysis</t>
-  </si>
-  <si>
     <t>Doing the Test</t>
   </si>
   <si>
@@ -1371,9 +1353,6 @@
     <t>Matt</t>
   </si>
   <si>
-    <t>Gokcen</t>
-  </si>
-  <si>
     <t>Create ERD diagram</t>
   </si>
   <si>
@@ -1381,6 +1360,51 @@
   </si>
   <si>
     <t>[Tim, Matt, Estel, Gocken, Phuong]</t>
+  </si>
+  <si>
+    <t>Clean Data</t>
+  </si>
+  <si>
+    <t>Visualize the Data - Tell a Story</t>
+  </si>
+  <si>
+    <t>Insert Clean Data into Database</t>
+  </si>
+  <si>
+    <t>Estel &amp; Tim</t>
+  </si>
+  <si>
+    <t>Phuong &amp; Gokcen</t>
+  </si>
+  <si>
+    <t>Deploy ML Model as a Web Service</t>
+  </si>
+  <si>
+    <t>Build 2 or 3 ML Models</t>
+  </si>
+  <si>
+    <t>Refine the Analysis - Compare different models results</t>
+  </si>
+  <si>
+    <t>Submit segment 2 Deliverable</t>
+  </si>
+  <si>
+    <t>Gokcen &amp; Tim</t>
+  </si>
+  <si>
+    <t>Update Presentation Slide</t>
+  </si>
+  <si>
+    <t>Create the Database using SQL Script</t>
+  </si>
+  <si>
+    <t>Estel &amp; Gokcen</t>
+  </si>
+  <si>
+    <t>Review Project Deliverables</t>
+  </si>
+  <si>
+    <t>Upload Clean Data as .csv file to Github</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1417,7 @@
     <numFmt numFmtId="166" formatCode="d"/>
     <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1921,6 +1945,20 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -2581,7 +2619,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3031,6 +3069,21 @@
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="78" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="78" fillId="22" borderId="11" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="79" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3211,16 +3264,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>722584</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71553</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3666,18 +3719,18 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ET41"/>
+  <dimension ref="A1:ET47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="10" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="10" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" style="10" customWidth="1"/>
     <col min="7" max="7" width="6" style="10" customWidth="1"/>
@@ -3690,7 +3743,7 @@
   <sheetData>
     <row r="1" spans="1:150" s="25" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="96" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -3717,7 +3770,7 @@
     </row>
     <row r="2" spans="1:150" s="42" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="90" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -4637,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="85">
         <f t="shared" ref="I9:I11" si="10">IF(OR(F9=0,E9=0),0,NETWORKDAYS(E9,F9))</f>
@@ -4710,7 +4763,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D10" s="73"/>
       <c r="E10" s="70">
@@ -4724,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="85">
         <f t="shared" si="10"/>
@@ -4811,7 +4864,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="85">
         <f t="shared" si="10"/>
@@ -4956,7 +5009,7 @@
         <v>100</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="70">
@@ -5034,12 +5087,14 @@
       <c r="BN13" s="19"/>
     </row>
     <row r="14" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="75">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B14" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="70">
@@ -5114,9 +5169,11 @@
       <c r="BN14" s="19"/>
     </row>
     <row r="15" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="75">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B15" s="20" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>87</v>
@@ -5196,27 +5253,27 @@
     <row r="16" spans="1:150" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="70">
         <v>44942</v>
       </c>
       <c r="F16" s="67">
-        <f t="shared" ref="F16:F23" si="11">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
+        <f t="shared" ref="F16:F19" si="11">IF(ISBLANK(E16)," - ",IF(G16=0,E16,E16+G16-1))</f>
         <v>44946</v>
       </c>
       <c r="G16" s="27">
         <v>5</v>
       </c>
       <c r="H16" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="85">
         <f>IF(OR(F16=0,E16=0),0,NETWORKDAYS(E16,F16))</f>
@@ -5281,15 +5338,14 @@
       <c r="BN16" s="19"/>
     </row>
     <row r="17" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.2</v>
+      <c r="A17" s="75">
+        <v>2.5</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="70">
@@ -5303,7 +5359,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="85">
         <f>IF(OR(F17=0,E17=0),0,NETWORKDAYS(E17,F17))</f>
@@ -5368,33 +5424,32 @@
       <c r="BN17" s="19"/>
     </row>
     <row r="18" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.3</v>
+      <c r="A18" s="75">
+        <v>2.6</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="70">
-        <v>44942</v>
+        <v>43154</v>
       </c>
       <c r="F18" s="67">
-        <f t="shared" si="11"/>
-        <v>44948</v>
+        <f t="shared" ref="F18" si="12">IF(ISBLANK(E18)," - ",IF(G18=0,E18,E18+G18-1))</f>
+        <v>43154</v>
       </c>
       <c r="G18" s="27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H18" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="85">
         <f>IF(OR(F18=0,E18=0),0,NETWORKDAYS(E18,F18))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J18" s="78"/>
       <c r="K18" s="19"/>
@@ -5455,19 +5510,33 @@
       <c r="BN18" s="19"/>
     </row>
     <row r="19" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
+      <c r="A19" s="75">
+        <v>2.7</v>
+      </c>
       <c r="B19" s="20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D19" s="18"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="85"/>
+      <c r="E19" s="70">
+        <v>44942</v>
+      </c>
+      <c r="F19" s="67">
+        <f t="shared" si="11"/>
+        <v>44948</v>
+      </c>
+      <c r="G19" s="27">
+        <v>7</v>
+      </c>
+      <c r="H19" s="28">
+        <v>1</v>
+      </c>
+      <c r="I19" s="85">
+        <f>IF(OR(F19=0,E19=0),0,NETWORKDAYS(E19,F19))</f>
+        <v>5</v>
+      </c>
       <c r="J19" s="78"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -5527,34 +5596,29 @@
       <c r="BN19" s="19"/>
     </row>
     <row r="20" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.1</v>
+      <c r="A20" s="75">
+        <v>2.8</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="70">
-        <v>43154</v>
+        <v>44942</v>
       </c>
       <c r="F20" s="67">
-        <f t="shared" ref="F20" si="12">IF(ISBLANK(E20)," - ",IF(G20=0,E20,E20+G20-1))</f>
-        <v>43154</v>
+        <v>44951</v>
       </c>
       <c r="G20" s="27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" s="28">
         <v>0</v>
       </c>
-      <c r="I20" s="85">
-        <f>IF(OR(F20=0,E20=0),0,NETWORKDAYS(E20,F20))</f>
-        <v>1</v>
-      </c>
+      <c r="I20" s="85"/>
       <c r="J20" s="78"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -5614,12 +5678,11 @@
       <c r="BN20" s="19"/>
     </row>
     <row r="21" spans="1:66" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A21" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.2</v>
+      <c r="A21" s="75">
+        <v>2.9</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>91</v>
@@ -5636,7 +5699,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="85">
         <f>IF(OR(F21=0,E21=0),0,NETWORKDAYS(E21,F21))</f>
@@ -5703,13 +5766,13 @@
     <row r="22" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.3</v>
+        <v>2.10</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="70">
@@ -5723,7 +5786,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="85">
         <f>IF(OR(F22=0,E22=0),0,NETWORKDAYS(E22,F22))</f>
@@ -5787,188 +5850,191 @@
       <c r="BM22" s="19"/>
       <c r="BN22" s="19"/>
     </row>
-    <row r="23" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="str">
+    <row r="23" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="76" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="21"/>
+      <c r="AF23" s="21"/>
+      <c r="AG23" s="21"/>
+      <c r="AH23" s="21"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="21"/>
+      <c r="AK23" s="21"/>
+      <c r="AL23" s="21"/>
+      <c r="AM23" s="21"/>
+      <c r="AN23" s="21"/>
+      <c r="AO23" s="21"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="21"/>
+      <c r="AR23" s="21"/>
+      <c r="AS23" s="21"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="21"/>
+      <c r="AV23" s="21"/>
+      <c r="AW23" s="21"/>
+      <c r="AX23" s="21"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="21"/>
+      <c r="BA23" s="21"/>
+      <c r="BB23" s="21"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="21"/>
+      <c r="BE23" s="21"/>
+      <c r="BF23" s="21"/>
+      <c r="BG23" s="21"/>
+      <c r="BH23" s="21"/>
+      <c r="BI23" s="21"/>
+      <c r="BJ23" s="21"/>
+      <c r="BK23" s="21"/>
+      <c r="BL23" s="21"/>
+      <c r="BM23" s="21"/>
+      <c r="BN23" s="21"/>
+    </row>
+    <row r="24" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.4</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="70">
-        <v>44951</v>
-      </c>
-      <c r="F23" s="67">
-        <f t="shared" si="11"/>
-        <v>44951</v>
-      </c>
-      <c r="G23" s="27">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28">
+        <v>3.1</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F24" s="67">
+        <f t="shared" ref="F24:F31" si="14">IF(ISBLANK(E24)," - ",IF(G24=0,E24,E24+G24-1))</f>
+        <v>44953</v>
+      </c>
+      <c r="G24" s="27">
+        <v>5</v>
+      </c>
+      <c r="H24" s="28">
         <v>0</v>
       </c>
-      <c r="I23" s="85">
-        <f>IF(OR(F23=0,E23=0),0,NETWORKDAYS(E23,F23))</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="78"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="19"/>
-      <c r="AE23" s="19"/>
-      <c r="AF23" s="19"/>
-      <c r="AG23" s="19"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="19"/>
-      <c r="AL23" s="19"/>
-      <c r="AM23" s="19"/>
-      <c r="AN23" s="19"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="19"/>
-      <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
-      <c r="AT23" s="19"/>
-      <c r="AU23" s="19"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
-      <c r="BB23" s="19"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="19"/>
-      <c r="BE23" s="19"/>
-      <c r="BF23" s="19"/>
-      <c r="BG23" s="19"/>
-      <c r="BH23" s="19"/>
-      <c r="BI23" s="19"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="19"/>
-      <c r="BL23" s="19"/>
-      <c r="BM23" s="19"/>
-      <c r="BN23" s="19"/>
-    </row>
-    <row r="24" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="76" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
-      <c r="AB24" s="21"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="21"/>
-      <c r="AE24" s="21"/>
-      <c r="AF24" s="21"/>
-      <c r="AG24" s="21"/>
-      <c r="AH24" s="21"/>
-      <c r="AI24" s="21"/>
-      <c r="AJ24" s="21"/>
-      <c r="AK24" s="21"/>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="21"/>
-      <c r="AO24" s="21"/>
-      <c r="AP24" s="21"/>
-      <c r="AQ24" s="21"/>
-      <c r="AR24" s="21"/>
-      <c r="AS24" s="21"/>
-      <c r="AT24" s="21"/>
-      <c r="AU24" s="21"/>
-      <c r="AV24" s="21"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="21"/>
-      <c r="AZ24" s="21"/>
-      <c r="BA24" s="21"/>
-      <c r="BB24" s="21"/>
-      <c r="BC24" s="21"/>
-      <c r="BD24" s="21"/>
-      <c r="BE24" s="21"/>
-      <c r="BF24" s="21"/>
-      <c r="BG24" s="21"/>
-      <c r="BH24" s="21"/>
-      <c r="BI24" s="21"/>
-      <c r="BJ24" s="21"/>
-      <c r="BK24" s="21"/>
-      <c r="BL24" s="21"/>
-      <c r="BM24" s="21"/>
-      <c r="BN24" s="21"/>
+      <c r="I24" s="85">
+        <f>IF(OR(F24=0,E24=0),0,NETWORKDAYS(E24,F24))</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="78"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+      <c r="AQ24" s="19"/>
+      <c r="AR24" s="19"/>
+      <c r="AS24" s="19"/>
+      <c r="AT24" s="19"/>
+      <c r="AU24" s="19"/>
+      <c r="AV24" s="19"/>
+      <c r="AW24" s="19"/>
+      <c r="AX24" s="19"/>
+      <c r="AY24" s="19"/>
+      <c r="AZ24" s="19"/>
+      <c r="BA24" s="19"/>
+      <c r="BB24" s="19"/>
+      <c r="BC24" s="19"/>
+      <c r="BD24" s="19"/>
+      <c r="BE24" s="19"/>
+      <c r="BF24" s="19"/>
+      <c r="BG24" s="19"/>
+      <c r="BH24" s="19"/>
+      <c r="BI24" s="19"/>
+      <c r="BJ24" s="19"/>
+      <c r="BK24" s="19"/>
+      <c r="BL24" s="19"/>
+      <c r="BM24" s="19"/>
+      <c r="BN24" s="19"/>
     </row>
     <row r="25" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+      <c r="A25" s="75">
+        <v>3.2</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="67" t="str">
-        <f t="shared" ref="F25:F30" si="14">IF(ISBLANK(E25)," - ",IF(G25=0,E25,E25+G25-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E25" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F25" s="67">
+        <f t="shared" si="14"/>
+        <v>44953</v>
       </c>
       <c r="G25" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H25" s="28">
         <v>0</v>
       </c>
       <c r="I25" s="85">
-        <f>IF(OR(F25=0,E25=0),0,NETWORKDAYS(E25,F25))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="78"/>
       <c r="K25" s="19"/>
@@ -6029,28 +6095,32 @@
       <c r="BN25" s="19"/>
     </row>
     <row r="26" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.2</v>
+      <c r="A26" s="75">
+        <v>3.3</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>109</v>
+        <v>130</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="67" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E26" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F26" s="67">
+        <f>IF(ISBLANK(E26)," - ",IF(G26=0,E26,E26+G26-1))</f>
+        <v>44953</v>
       </c>
       <c r="G26" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" s="28">
         <v>0</v>
       </c>
       <c r="I26" s="85">
         <f>IF(OR(F26=0,E26=0),0,NETWORKDAYS(E26,F26))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26" s="78"/>
       <c r="K26" s="19"/>
@@ -6113,26 +6183,30 @@
     <row r="27" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="67" t="str">
-        <f t="shared" si="14"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E27" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F27" s="67">
+        <f t="shared" ref="F27:F29" si="15">IF(ISBLANK(E27)," - ",IF(G27=0,E27,E27+G27-1))</f>
+        <v>44953</v>
       </c>
       <c r="G27" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27" s="28">
         <v>0</v>
       </c>
       <c r="I27" s="85">
-        <f>IF(OR(F27=0,E27=0),0,NETWORKDAYS(E27,F27))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J27" s="78"/>
       <c r="K27" s="19"/>
@@ -6193,16 +6267,32 @@
       <c r="BN27" s="19"/>
     </row>
     <row r="28" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
+      <c r="A28" s="75">
+        <v>3.5</v>
+      </c>
       <c r="B28" s="20" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="D28" s="18"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="85"/>
+      <c r="E28" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F28" s="67">
+        <f t="shared" si="15"/>
+        <v>44953</v>
+      </c>
+      <c r="G28" s="27">
+        <v>5</v>
+      </c>
+      <c r="H28" s="28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="85">
+        <v>5</v>
+      </c>
       <c r="J28" s="78"/>
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
@@ -6262,30 +6352,31 @@
       <c r="BN28" s="19"/>
     </row>
     <row r="29" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.1</v>
+      <c r="A29" s="75">
+        <v>3.6</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>106</v>
+        <v>125</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="70">
-        <v>44957</v>
+        <v>44949</v>
       </c>
       <c r="F29" s="67">
-        <f t="shared" ref="F29" si="15">IF(ISBLANK(E29)," - ",IF(G29=0,E29,E29+G29-1))</f>
-        <v>44957</v>
+        <f t="shared" si="15"/>
+        <v>44953</v>
       </c>
       <c r="G29" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H29" s="28">
         <v>0</v>
       </c>
       <c r="I29" s="85">
-        <f>IF(OR(F29=0,E29=0),0,NETWORKDAYS(E29,F29))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" s="78"/>
       <c r="K29" s="19"/>
@@ -6345,31 +6436,34 @@
       <c r="BM29" s="19"/>
       <c r="BN29" s="19"/>
     </row>
-    <row r="30" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" s="17" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A30" s="75" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="70">
-        <v>44958</v>
+        <v>44949</v>
       </c>
       <c r="F30" s="67">
         <f t="shared" si="14"/>
-        <v>44958</v>
+        <v>44953</v>
       </c>
       <c r="G30" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H30" s="28">
         <v>0</v>
       </c>
       <c r="I30" s="85">
         <f>IF(OR(F30=0,E30=0),0,NETWORKDAYS(E30,F30))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" s="78"/>
       <c r="K30" s="19"/>
@@ -6429,101 +6523,119 @@
       <c r="BM30" s="19"/>
       <c r="BN30" s="19"/>
     </row>
-    <row r="31" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
-      <c r="BI31" s="21"/>
-      <c r="BJ31" s="21"/>
-      <c r="BK31" s="21"/>
-      <c r="BL31" s="21"/>
-      <c r="BM31" s="21"/>
-      <c r="BN31" s="21"/>
+    <row r="31" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="75">
+        <v>3.8</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F31" s="67">
+        <f t="shared" si="14"/>
+        <v>44953</v>
+      </c>
+      <c r="G31" s="27">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28">
+        <v>0</v>
+      </c>
+      <c r="I31" s="85">
+        <f>IF(OR(F31=0,E31=0),0,NETWORKDAYS(E31,F31))</f>
+        <v>5</v>
+      </c>
+      <c r="J31" s="78"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+      <c r="AS31" s="19"/>
+      <c r="AT31" s="19"/>
+      <c r="AU31" s="19"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="19"/>
+      <c r="AY31" s="19"/>
+      <c r="AZ31" s="19"/>
+      <c r="BA31" s="19"/>
+      <c r="BB31" s="19"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="19"/>
+      <c r="BE31" s="19"/>
+      <c r="BF31" s="19"/>
+      <c r="BG31" s="19"/>
+      <c r="BH31" s="19"/>
+      <c r="BI31" s="19"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="19"/>
+      <c r="BL31" s="19"/>
+      <c r="BM31" s="19"/>
+      <c r="BN31" s="19"/>
     </row>
     <row r="32" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="75" t="str">
-        <f t="shared" ref="A32:A37" si="16">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
+      <c r="A32" s="75">
+        <v>3.9</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>118</v>
+        <v>129</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="67" t="str">
-        <f t="shared" ref="F32:F37" si="17">IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E32" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F32" s="67">
+        <f>IF(ISBLANK(E32)," - ",IF(G32=0,E32,E32+G32-1))</f>
+        <v>44953</v>
       </c>
       <c r="G32" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H32" s="28">
         <v>0</v>
       </c>
       <c r="I32" s="85">
-        <f t="shared" ref="I32:I37" si="18">IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
-        <v>0</v>
+        <f>IF(OR(F32=0,E32=0),0,NETWORKDAYS(E32,F32))</f>
+        <v>5</v>
       </c>
       <c r="J32" s="78"/>
       <c r="K32" s="19"/>
@@ -6585,27 +6697,31 @@
     </row>
     <row r="33" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="75" t="str">
-        <f t="shared" si="16"/>
-        <v>1.2</v>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.10</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="67" t="str">
-        <f t="shared" ref="F33" si="19">IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="E33" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F33" s="67">
+        <f>IF(ISBLANK(E33)," - ",IF(G33=0,E33,E33+G33-1))</f>
+        <v>44953</v>
       </c>
       <c r="G33" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H33" s="28">
         <v>0</v>
       </c>
       <c r="I33" s="85">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J33" s="78"/>
       <c r="K33" s="19"/>
@@ -6666,28 +6782,32 @@
       <c r="BN33" s="19"/>
     </row>
     <row r="34" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="75" t="str">
-        <f t="shared" si="16"/>
-        <v>1.3</v>
+      <c r="A34" s="75">
+        <v>3.11</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="D34" s="18"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="67" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> - </v>
+      <c r="E34" s="70">
+        <v>44949</v>
+      </c>
+      <c r="F34" s="67">
+        <f t="shared" ref="F34" si="16">IF(ISBLANK(E34)," - ",IF(G34=0,E34,E34+G34-1))</f>
+        <v>44953</v>
       </c>
       <c r="G34" s="27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H34" s="28">
         <v>0</v>
       </c>
       <c r="I34" s="85">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>IF(OR(F34=0,E34=0),0,NETWORKDAYS(E34,F34))</f>
+        <v>5</v>
       </c>
       <c r="J34" s="78"/>
       <c r="K34" s="19"/>
@@ -6747,103 +6867,91 @@
       <c r="BM34" s="19"/>
       <c r="BN34" s="19"/>
     </row>
-    <row r="35" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="75" t="str">
-        <f t="shared" si="16"/>
-        <v>1.4</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="67" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G35" s="27">
-        <v>1</v>
-      </c>
-      <c r="H35" s="28">
-        <v>0</v>
-      </c>
-      <c r="I35" s="85">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="78"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
-      <c r="AI35" s="19"/>
-      <c r="AJ35" s="19"/>
-      <c r="AK35" s="19"/>
-      <c r="AL35" s="19"/>
-      <c r="AM35" s="19"/>
-      <c r="AN35" s="19"/>
-      <c r="AO35" s="19"/>
-      <c r="AP35" s="19"/>
-      <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
-      <c r="AT35" s="19"/>
-      <c r="AU35" s="19"/>
-      <c r="AV35" s="19"/>
-      <c r="AW35" s="19"/>
-      <c r="AX35" s="19"/>
-      <c r="AY35" s="19"/>
-      <c r="AZ35" s="19"/>
-      <c r="BA35" s="19"/>
-      <c r="BB35" s="19"/>
-      <c r="BC35" s="19"/>
-      <c r="BD35" s="19"/>
-      <c r="BE35" s="19"/>
-      <c r="BF35" s="19"/>
-      <c r="BG35" s="19"/>
-      <c r="BH35" s="19"/>
-      <c r="BI35" s="19"/>
-      <c r="BJ35" s="19"/>
-      <c r="BK35" s="19"/>
-      <c r="BL35" s="19"/>
-      <c r="BM35" s="19"/>
-      <c r="BN35" s="19"/>
+    <row r="35" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="76" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="21"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="21"/>
+      <c r="AZ35" s="21"/>
+      <c r="BA35" s="21"/>
+      <c r="BB35" s="21"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21"/>
+      <c r="BE35" s="21"/>
+      <c r="BF35" s="21"/>
+      <c r="BG35" s="21"/>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="21"/>
+      <c r="BK35" s="21"/>
+      <c r="BL35" s="21"/>
+      <c r="BM35" s="21"/>
+      <c r="BN35" s="21"/>
     </row>
     <row r="36" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="75" t="str">
-        <f t="shared" si="16"/>
-        <v>1.5</v>
+        <f t="shared" ref="A36:A42" si="17">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="70">
-        <v>44964</v>
-      </c>
-      <c r="F36" s="67">
-        <f t="shared" si="17"/>
-        <v>44964</v>
+      <c r="E36" s="70"/>
+      <c r="F36" s="67" t="str">
+        <f t="shared" ref="F36:F43" si="18">IF(ISBLANK(E36)," - ",IF(G36=0,E36,E36+G36-1))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="G36" s="27">
         <v>1</v>
@@ -6852,8 +6960,8 @@
         <v>0</v>
       </c>
       <c r="I36" s="85">
-        <f t="shared" si="18"/>
-        <v>1</v>
+        <f t="shared" ref="I36:I43" si="19">IF(OR(F36=0,E36=0),0,NETWORKDAYS(E36,F36))</f>
+        <v>0</v>
       </c>
       <c r="J36" s="78"/>
       <c r="K36" s="19"/>
@@ -6914,31 +7022,18 @@
       <c r="BN36" s="19"/>
     </row>
     <row r="37" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="75" t="str">
-        <f t="shared" si="16"/>
-        <v>1.6</v>
+      <c r="A37" s="75">
+        <v>2.2000000000000002</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D37" s="18"/>
-      <c r="E37" s="70">
-        <v>44965</v>
-      </c>
-      <c r="F37" s="67">
-        <f t="shared" si="17"/>
-        <v>44965</v>
-      </c>
-      <c r="G37" s="27">
-        <v>1</v>
-      </c>
-      <c r="H37" s="28">
-        <v>0</v>
-      </c>
-      <c r="I37" s="85">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
+      <c r="E37" s="70"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="85"/>
       <c r="J37" s="78"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -6997,96 +7092,90 @@
       <c r="BM37" s="19"/>
       <c r="BN37" s="19"/>
     </row>
-    <row r="38" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="76" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="21"/>
-      <c r="AD38" s="21"/>
-      <c r="AE38" s="21"/>
-      <c r="AF38" s="21"/>
-      <c r="AG38" s="21"/>
-      <c r="AH38" s="21"/>
-      <c r="AI38" s="21"/>
-      <c r="AJ38" s="21"/>
-      <c r="AK38" s="21"/>
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
-      <c r="AN38" s="21"/>
-      <c r="AO38" s="21"/>
-      <c r="AP38" s="21"/>
-      <c r="AQ38" s="21"/>
-      <c r="AR38" s="21"/>
-      <c r="AS38" s="21"/>
-      <c r="AT38" s="21"/>
-      <c r="AU38" s="21"/>
-      <c r="AV38" s="21"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="21"/>
-      <c r="AZ38" s="21"/>
-      <c r="BA38" s="21"/>
-      <c r="BB38" s="21"/>
-      <c r="BC38" s="21"/>
-      <c r="BD38" s="21"/>
-      <c r="BE38" s="21"/>
-      <c r="BF38" s="21"/>
-      <c r="BG38" s="21"/>
-      <c r="BH38" s="21"/>
-      <c r="BI38" s="21"/>
-      <c r="BJ38" s="21"/>
-      <c r="BK38" s="21"/>
-      <c r="BL38" s="21"/>
-      <c r="BM38" s="21"/>
-      <c r="BN38" s="21"/>
+    <row r="38" spans="1:66" s="72" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>2.3</v>
+      </c>
+      <c r="B38" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="157"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="160"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="161"/>
+      <c r="N38" s="161"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
+      <c r="S38" s="161"/>
+      <c r="T38" s="161"/>
+      <c r="U38" s="161"/>
+      <c r="V38" s="161"/>
+      <c r="W38" s="161"/>
+      <c r="X38" s="161"/>
+      <c r="Y38" s="161"/>
+      <c r="Z38" s="161"/>
+      <c r="AA38" s="161"/>
+      <c r="AB38" s="161"/>
+      <c r="AC38" s="161"/>
+      <c r="AD38" s="161"/>
+      <c r="AE38" s="161"/>
+      <c r="AF38" s="161"/>
+      <c r="AG38" s="161"/>
+      <c r="AH38" s="161"/>
+      <c r="AI38" s="161"/>
+      <c r="AJ38" s="161"/>
+      <c r="AK38" s="161"/>
+      <c r="AL38" s="161"/>
+      <c r="AM38" s="161"/>
+      <c r="AN38" s="161"/>
+      <c r="AO38" s="161"/>
+      <c r="AP38" s="161"/>
+      <c r="AQ38" s="161"/>
+      <c r="AR38" s="161"/>
+      <c r="AS38" s="161"/>
+      <c r="AT38" s="161"/>
+      <c r="AU38" s="161"/>
+      <c r="AV38" s="161"/>
+      <c r="AW38" s="161"/>
+      <c r="AX38" s="161"/>
+      <c r="AY38" s="161"/>
+      <c r="AZ38" s="161"/>
+      <c r="BA38" s="161"/>
+      <c r="BB38" s="161"/>
+      <c r="BC38" s="161"/>
+      <c r="BD38" s="161"/>
+      <c r="BE38" s="161"/>
+      <c r="BF38" s="161"/>
+      <c r="BG38" s="161"/>
+      <c r="BH38" s="161"/>
+      <c r="BI38" s="161"/>
+      <c r="BJ38" s="161"/>
+      <c r="BK38" s="161"/>
+      <c r="BL38" s="161"/>
+      <c r="BM38" s="161"/>
+      <c r="BN38" s="161"/>
     </row>
     <row r="39" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
+      <c r="A39" s="75">
+        <v>2.4</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="70">
-        <v>44965</v>
-      </c>
-      <c r="F39" s="67">
+      <c r="E39" s="70"/>
+      <c r="F39" s="67" t="str">
         <f t="shared" ref="F39" si="20">IF(ISBLANK(E39)," - ",IF(G39=0,E39,E39+G39-1))</f>
-        <v>44965</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="G39" s="27">
         <v>1</v>
@@ -7095,8 +7184,8 @@
         <v>0</v>
       </c>
       <c r="I39" s="85">
-        <f>IF(OR(F39=0,E39=0),0,NETWORKDAYS(E39,F39))</f>
-        <v>1</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="J39" s="78"/>
       <c r="K39" s="19"/>
@@ -7156,8 +7245,497 @@
       <c r="BM39" s="19"/>
       <c r="BN39" s="19"/>
     </row>
-    <row r="40" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>2.5</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G40" s="27">
+        <v>1</v>
+      </c>
+      <c r="H40" s="28">
+        <v>0</v>
+      </c>
+      <c r="I40" s="85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="78"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+      <c r="AQ40" s="19"/>
+      <c r="AR40" s="19"/>
+      <c r="AS40" s="19"/>
+      <c r="AT40" s="19"/>
+      <c r="AU40" s="19"/>
+      <c r="AV40" s="19"/>
+      <c r="AW40" s="19"/>
+      <c r="AX40" s="19"/>
+      <c r="AY40" s="19"/>
+      <c r="AZ40" s="19"/>
+      <c r="BA40" s="19"/>
+      <c r="BB40" s="19"/>
+      <c r="BC40" s="19"/>
+      <c r="BD40" s="19"/>
+      <c r="BE40" s="19"/>
+      <c r="BF40" s="19"/>
+      <c r="BG40" s="19"/>
+      <c r="BH40" s="19"/>
+      <c r="BI40" s="19"/>
+      <c r="BJ40" s="19"/>
+      <c r="BK40" s="19"/>
+      <c r="BL40" s="19"/>
+      <c r="BM40" s="19"/>
+      <c r="BN40" s="19"/>
+    </row>
+    <row r="41" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="75">
+        <v>2.6</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="67" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G41" s="27">
+        <v>1</v>
+      </c>
+      <c r="H41" s="28">
+        <v>0</v>
+      </c>
+      <c r="I41" s="85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="78"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="19"/>
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19"/>
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
+      <c r="BC41" s="19"/>
+      <c r="BD41" s="19"/>
+      <c r="BE41" s="19"/>
+      <c r="BF41" s="19"/>
+      <c r="BG41" s="19"/>
+      <c r="BH41" s="19"/>
+      <c r="BI41" s="19"/>
+      <c r="BJ41" s="19"/>
+      <c r="BK41" s="19"/>
+      <c r="BL41" s="19"/>
+      <c r="BM41" s="19"/>
+      <c r="BN41" s="19"/>
+    </row>
+    <row r="42" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="75" t="str">
+        <f t="shared" si="17"/>
+        <v>2.7</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="70">
+        <v>44964</v>
+      </c>
+      <c r="F42" s="67">
+        <f t="shared" si="18"/>
+        <v>44964</v>
+      </c>
+      <c r="G42" s="27">
+        <v>1</v>
+      </c>
+      <c r="H42" s="28">
+        <v>0</v>
+      </c>
+      <c r="I42" s="85">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="78"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+      <c r="AQ42" s="19"/>
+      <c r="AR42" s="19"/>
+      <c r="AS42" s="19"/>
+      <c r="AT42" s="19"/>
+      <c r="AU42" s="19"/>
+      <c r="AV42" s="19"/>
+      <c r="AW42" s="19"/>
+      <c r="AX42" s="19"/>
+      <c r="AY42" s="19"/>
+      <c r="AZ42" s="19"/>
+      <c r="BA42" s="19"/>
+      <c r="BB42" s="19"/>
+      <c r="BC42" s="19"/>
+      <c r="BD42" s="19"/>
+      <c r="BE42" s="19"/>
+      <c r="BF42" s="19"/>
+      <c r="BG42" s="19"/>
+      <c r="BH42" s="19"/>
+      <c r="BI42" s="19"/>
+      <c r="BJ42" s="19"/>
+      <c r="BK42" s="19"/>
+      <c r="BL42" s="19"/>
+      <c r="BM42" s="19"/>
+      <c r="BN42" s="19"/>
+    </row>
+    <row r="43" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="75">
+        <v>2.8</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="70">
+        <v>44965</v>
+      </c>
+      <c r="F43" s="67">
+        <f t="shared" si="18"/>
+        <v>44965</v>
+      </c>
+      <c r="G43" s="27">
+        <v>1</v>
+      </c>
+      <c r="H43" s="28">
+        <v>0</v>
+      </c>
+      <c r="I43" s="85">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J43" s="78"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="19"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="19"/>
+      <c r="AK43" s="19"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="19"/>
+      <c r="AO43" s="19"/>
+      <c r="AP43" s="19"/>
+      <c r="AQ43" s="19"/>
+      <c r="AR43" s="19"/>
+      <c r="AS43" s="19"/>
+      <c r="AT43" s="19"/>
+      <c r="AU43" s="19"/>
+      <c r="AV43" s="19"/>
+      <c r="AW43" s="19"/>
+      <c r="AX43" s="19"/>
+      <c r="AY43" s="19"/>
+      <c r="AZ43" s="19"/>
+      <c r="BA43" s="19"/>
+      <c r="BB43" s="19"/>
+      <c r="BC43" s="19"/>
+      <c r="BD43" s="19"/>
+      <c r="BE43" s="19"/>
+      <c r="BF43" s="19"/>
+      <c r="BG43" s="19"/>
+      <c r="BH43" s="19"/>
+      <c r="BI43" s="19"/>
+      <c r="BJ43" s="19"/>
+      <c r="BK43" s="19"/>
+      <c r="BL43" s="19"/>
+      <c r="BM43" s="19"/>
+      <c r="BN43" s="19"/>
+    </row>
+    <row r="44" spans="1:66" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="76" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="21"/>
+      <c r="AH44" s="21"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="21"/>
+      <c r="AO44" s="21"/>
+      <c r="AP44" s="21"/>
+      <c r="AQ44" s="21"/>
+      <c r="AR44" s="21"/>
+      <c r="AS44" s="21"/>
+      <c r="AT44" s="21"/>
+      <c r="AU44" s="21"/>
+      <c r="AV44" s="21"/>
+      <c r="AW44" s="21"/>
+      <c r="AX44" s="21"/>
+      <c r="AY44" s="21"/>
+      <c r="AZ44" s="21"/>
+      <c r="BA44" s="21"/>
+      <c r="BB44" s="21"/>
+      <c r="BC44" s="21"/>
+      <c r="BD44" s="21"/>
+      <c r="BE44" s="21"/>
+      <c r="BF44" s="21"/>
+      <c r="BG44" s="21"/>
+      <c r="BH44" s="21"/>
+      <c r="BI44" s="21"/>
+      <c r="BJ44" s="21"/>
+      <c r="BK44" s="21"/>
+      <c r="BL44" s="21"/>
+      <c r="BM44" s="21"/>
+      <c r="BN44" s="21"/>
+    </row>
+    <row r="45" spans="1:66" s="17" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="75" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="70">
+        <v>44965</v>
+      </c>
+      <c r="F45" s="67">
+        <f t="shared" ref="F45" si="21">IF(ISBLANK(E45)," - ",IF(G45=0,E45,E45+G45-1))</f>
+        <v>44965</v>
+      </c>
+      <c r="G45" s="27">
+        <v>1</v>
+      </c>
+      <c r="H45" s="28">
+        <v>0</v>
+      </c>
+      <c r="I45" s="85">
+        <f>IF(OR(F45=0,E45=0),0,NETWORKDAYS(E45,F45))</f>
+        <v>1</v>
+      </c>
+      <c r="J45" s="78"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="19"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="19"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="19"/>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="19"/>
+      <c r="BA45" s="19"/>
+      <c r="BB45" s="19"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="19"/>
+      <c r="BE45" s="19"/>
+      <c r="BF45" s="19"/>
+      <c r="BG45" s="19"/>
+      <c r="BH45" s="19"/>
+      <c r="BI45" s="19"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="19"/>
+      <c r="BL45" s="19"/>
+      <c r="BM45" s="19"/>
+      <c r="BN45" s="19"/>
+    </row>
+    <row r="46" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:66" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
@@ -7182,7 +7760,7 @@
     <mergeCell ref="BA5:BG5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H8:H39">
+  <conditionalFormatting sqref="H8:H45">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -7201,7 +7779,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN39">
+  <conditionalFormatting sqref="K8:BN45">
     <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -7209,7 +7787,7 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN39">
+  <conditionalFormatting sqref="K6:BN45">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -7221,8 +7799,8 @@
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="F12 F24 F31 I13 I9:I11 H34:I36 H16:I18 H12:I12 H24:I27 H31:I32" unlockedFormula="1"/>
-    <ignoredError sqref="A31 A24 A12" formula="1"/>
+    <ignoredError sqref="F12 F23 F35 I13 I9:I11 H40:I42 H12:I12 H30:I30 H35:I36 I19 H23:I24 I16:I17" unlockedFormula="1"/>
+    <ignoredError sqref="A35 A23 A12" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -7270,7 +7848,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H8:H39</xm:sqref>
+          <xm:sqref>H8:H45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
